--- a/outputs-r202/test-g__UBA1777.xlsx
+++ b/outputs-r202/test-g__UBA1777.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Row</t>
   </si>
@@ -166,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,14 +176,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,1380 +233,1380 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="C2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="D2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="F2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="G2">
-        <v>2.7142880759381761e-13</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="H2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="I2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="J2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="K2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="L2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="M2">
-        <v>0.99951854408684659</v>
+        <v>0.98994069416945796</v>
       </c>
       <c r="N2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="O2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="P2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="R2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="S2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="T2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="U2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="V2">
-        <v>0.00047458496532571092</v>
+        <v>0.010059305502159306</v>
       </c>
       <c r="W2">
-        <v>6.8709470232397245e-06</v>
+        <v>3.2782761099280378e-10</v>
       </c>
       <c r="X2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2204079235396684e-14</v>
+        <v>2.2201608757377284e-14</v>
       </c>
       <c r="AD2">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="L3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="M3">
-        <v>0.99973042195026729</v>
+        <v>0.96521230321491358</v>
       </c>
       <c r="N3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="O3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="P3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="R3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="S3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="T3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="U3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="V3">
-        <v>0.0002695780491553962</v>
+        <v>0.034787696784498626</v>
       </c>
       <c r="W3">
-        <v>2.2204246883656814e-14</v>
+        <v>3.2620190880719499e-14</v>
       </c>
       <c r="X3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2204246883656814e-14</v>
+        <v>2.2201751041186122e-14</v>
       </c>
       <c r="AD3">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="C4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="D4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="E4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="F4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="G4">
-        <v>2.220070019207397e-14</v>
+        <v>5.0046532369199819e-12</v>
       </c>
       <c r="H4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="I4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="J4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="K4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="L4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="M4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="N4">
-        <v>0.96061642581623574</v>
+        <v>0.99669160303397808</v>
       </c>
       <c r="O4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="P4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="Q4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="R4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="S4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="T4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="U4">
-        <v>0.038955674984888548</v>
+        <v>0.00028660522626377985</v>
       </c>
       <c r="V4">
-        <v>0.00042575095295099819</v>
+        <v>0.0030217917164974042</v>
       </c>
       <c r="W4">
-        <v>2.1482453920124272e-06</v>
+        <v>1.7745175899686276e-11</v>
       </c>
       <c r="X4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="Y4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="Z4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="AA4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="AB4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="AC4">
-        <v>2.220070019207397e-14</v>
+        <v>2.2201862624132412e-14</v>
       </c>
       <c r="AD4">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="C5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="D5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="E5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="F5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="G5">
-        <v>0.00022350993488979326</v>
+        <v>0.00012896531219615444</v>
       </c>
       <c r="H5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="I5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="J5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="K5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="L5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="M5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="N5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="O5">
-        <v>0.99977641883074342</v>
+        <v>0.99987010181356917</v>
       </c>
       <c r="P5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="Q5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="R5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="S5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="T5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="U5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="V5">
-        <v>7.1233811678705032e-08</v>
+        <v>9.3287367963858017e-07</v>
       </c>
       <c r="W5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="X5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="Y5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="Z5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="AA5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="AB5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="AC5">
-        <v>2.220428330657103e-14</v>
+        <v>2.2204357520805314e-14</v>
       </c>
       <c r="AD5">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204459225557987e-14</v>
+        <v>0.016118126046592338</v>
       </c>
       <c r="E6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="I6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="J6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="O6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="P6">
-        <v>0.99999840236514892</v>
+        <v>0.98388178305590024</v>
       </c>
       <c r="Q6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="R6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="T6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="U6">
-        <v>3.0408583337055525e-07</v>
+        <v>1.3273627440495701e-09</v>
       </c>
       <c r="V6">
-        <v>1.293548462629008e-06</v>
+        <v>8.956961191829717e-08</v>
       </c>
       <c r="W6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="X6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="AB6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="AC6">
-        <v>2.2204459225557987e-14</v>
+        <v>2.2201641978200722e-14</v>
       </c>
       <c r="AD6">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="C7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="D7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="E7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="F7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="G7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="H7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="I7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="J7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="K7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="L7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="M7">
-        <v>0.99939022770405384</v>
+        <v>0.9917831561192143</v>
       </c>
       <c r="N7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="O7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="P7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="R7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="S7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="T7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="U7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="V7">
-        <v>0.00060977229536902217</v>
+        <v>0.0082168438802083365</v>
       </c>
       <c r="W7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="X7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2203977807789957e-14</v>
+        <v>2.2201596770246173e-14</v>
       </c>
       <c r="AD7">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="C8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="D8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="E8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="F8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="G8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="H8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="I8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="J8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="K8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="L8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="M8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="N8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="O8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="P8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="Q8">
-        <v>0.99760921162599847</v>
+        <v>0.98601857440743357</v>
       </c>
       <c r="R8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="S8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="T8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="U8">
-        <v>0.00020340692536926434</v>
+        <v>0.0083731817417423762</v>
       </c>
       <c r="V8">
-        <v>0.0021873814480771934</v>
+        <v>0.0056082438502688958</v>
       </c>
       <c r="W8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="X8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2202578003507515e-14</v>
+        <v>2.2203288648272239e-14</v>
       </c>
       <c r="AD8">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="C9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="D9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="E9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="F9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="G9">
-        <v>0.035715268608661303</v>
+        <v>1.8162253907691874e-09</v>
       </c>
       <c r="H9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="I9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="J9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="K9">
-        <v>0.03571423743271953</v>
+        <v>9.6093332205352301e-13</v>
       </c>
       <c r="L9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="M9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="N9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="O9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="P9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="Q9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="R9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="S9">
-        <v>0.03571423743271953</v>
+        <v>0.99999959786404768</v>
       </c>
       <c r="T9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="U9">
-        <v>0.035714558132130446</v>
+        <v>2.5986982821708636e-07</v>
       </c>
       <c r="V9">
-        <v>0.035714237441219571</v>
+        <v>1.4044842699315923e-07</v>
       </c>
       <c r="W9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="X9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="Y9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="Z9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="AA9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="AB9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="AC9">
-        <v>0.03571423743271953</v>
+        <v>2.2204460173602677e-14</v>
       </c>
       <c r="AD9">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="C10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="D10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="E10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="F10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="G10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="H10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="I10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="J10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="K10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="L10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="M10">
-        <v>0.9985133744898993</v>
+        <v>0.98347686195181994</v>
       </c>
       <c r="N10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="O10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="P10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="Q10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="R10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="S10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="T10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="U10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="V10">
-        <v>0.001486625509523411</v>
+        <v>0.016523138047568345</v>
       </c>
       <c r="W10">
-        <v>2.2203286772385833e-14</v>
+        <v>5.668450086625831e-14</v>
       </c>
       <c r="X10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="Y10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="Z10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="AA10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="AB10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="AC10">
-        <v>2.2203286772385833e-14</v>
+        <v>2.220164928576372e-14</v>
       </c>
       <c r="AD10">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="C11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="D11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="E11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="F11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="G11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="H11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="I11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="J11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="K11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="L11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="M11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="N11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="O11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="P11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="Q11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="R11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="S11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="T11">
-        <v>0.99811352301030853</v>
+        <v>0.99905184430141802</v>
       </c>
       <c r="U11">
-        <v>2.0658002108800935e-08</v>
+        <v>3.7113744615421744e-10</v>
       </c>
       <c r="V11">
-        <v>0.0018864563311342621</v>
+        <v>0.00094815532688940758</v>
       </c>
       <c r="W11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="X11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="Y11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="Z11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="AA11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="AB11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="AC11">
-        <v>2.22029728552778e-14</v>
+        <v>2.2203710704262818e-14</v>
       </c>
       <c r="AD11">
         <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="C12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="D12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="E12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="F12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="G12">
-        <v>1.9067417390144686e-05</v>
+        <v>0.34879619292894287</v>
       </c>
       <c r="H12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="I12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="J12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="K12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="L12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="M12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="N12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="O12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="P12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="R12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="S12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="T12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="U12">
-        <v>0.99998016892952057</v>
+        <v>0.65120380533710387</v>
       </c>
       <c r="V12">
-        <v>7.6365253432052867e-07</v>
+        <v>1.7333979829828043e-09</v>
       </c>
       <c r="W12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="X12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="Y12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="Z12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="AA12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="AB12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="AC12">
-        <v>2.2204445724575302e-14</v>
+        <v>2.220358414282394e-14</v>
       </c>
       <c r="AD12">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="C13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="D13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="E13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="F13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="G13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="H13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="I13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="J13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="K13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="L13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="M13">
-        <v>0.99984329061876465</v>
+        <v>0.99595787877841468</v>
       </c>
       <c r="N13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="O13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="P13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="Q13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="R13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="S13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="T13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="U13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="V13">
-        <v>0.00015670938065812884</v>
+        <v>0.0040421212210081051</v>
       </c>
       <c r="W13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="X13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="Y13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="Z13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="AA13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="AB13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="AC13">
-        <v>2.2204336277166385e-14</v>
+        <v>2.2201573852397135e-14</v>
       </c>
       <c r="AD13">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.2166553869185719e-11</v>
+        <v>3.7483817522018817e-14</v>
       </c>
       <c r="C14">
-        <v>1.2166553869185719e-11</v>
+        <v>3.7483817522018817e-14</v>
       </c>
       <c r="D14">
-        <v>1.2166553869185719e-11</v>
+        <v>3.7483817522018817e-14</v>
       </c>
       <c r="E14">
-        <v>1.2166553869185652e-11</v>
+        <v>3.748381752201859e-14</v>
       </c>
       <c r="F14">
-        <v>1.2166553869185652e-11</v>
+        <v>3.748381752201859e-14</v>
       </c>
       <c r="G14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="H14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="I14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="J14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="K14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="L14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="M14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="N14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="O14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="P14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="Q14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="R14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018445e-14</v>
       </c>
       <c r="S14">
-        <v>1.2166553869185649e-11</v>
+        <v>3.7483817522018697e-14</v>
       </c>
       <c r="T14">
-        <v>1.2166553869185641e-11</v>
+        <v>3.7483817522018596e-14</v>
       </c>
       <c r="U14">
-        <v>0.093540366448906259</v>
+        <v>0.0012073425934975397</v>
       </c>
       <c r="V14">
-        <v>0.90645952541924912</v>
+        <v>0.99879244576259918</v>
       </c>
       <c r="W14">
-        <v>1.0782768068786632e-07</v>
+        <v>2.116429658868383e-07</v>
       </c>
       <c r="X14">
-        <v>1.2166553869185631e-11</v>
+        <v>3.7483817522018533e-14</v>
       </c>
       <c r="Y14">
-        <v>1.2166553869185685e-11</v>
+        <v>3.7483817522018634e-14</v>
       </c>
       <c r="Z14">
-        <v>1.2166553869185685e-11</v>
+        <v>3.7483817522018634e-14</v>
       </c>
       <c r="AA14">
-        <v>1.2166553869185685e-11</v>
+        <v>3.7483817522018634e-14</v>
       </c>
       <c r="AB14">
-        <v>1.2166553869185685e-11</v>
+        <v>3.7483817522018634e-14</v>
       </c>
       <c r="AC14">
-        <v>1.2166553869185667e-11</v>
+        <v>3.7483817522018533e-14</v>
       </c>
       <c r="AD14">
         <v>21</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="C15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="D15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="E15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="F15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="G15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="H15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="I15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="J15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="K15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="L15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="M15">
-        <v>0.99799882451040267</v>
+        <v>0.99526459613678009</v>
       </c>
       <c r="N15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="O15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="P15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="Q15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="R15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="S15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="T15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="U15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="V15">
-        <v>0.0020011754890201794</v>
+        <v>0.0047354038626425798</v>
       </c>
       <c r="W15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="X15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="Y15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="Z15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="AA15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="AB15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="AC15">
-        <v>2.2202882945989071e-14</v>
+        <v>2.2201578126158791e-14</v>
       </c>
       <c r="AD15">
         <v>12</v>
